--- a/ISBNS.xlsx
+++ b/ISBNS.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a4c74272cedf01d/Escritorio/Universidad/Practicas Finales/Inteligencia Artificial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Documents\Repositorios\IA1_Practica1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{75F9DA85-6412-421E-AD36-DA4F03FCEEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E264361-89B9-40AF-B674-A515C1A7ABC2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAAC6A2-6B08-4B37-A5A0-D7F1CFCA8B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FF211DC2-FC04-41AC-9102-3344C0DE50AC}"/>
+    <workbookView xWindow="4110" yWindow="3195" windowWidth="15375" windowHeight="8325" activeTab="1" xr2:uid="{FF211DC2-FC04-41AC-9102-3344C0DE50AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="82">
   <si>
     <t>ISBN</t>
   </si>
@@ -111,6 +112,180 @@
   </si>
   <si>
     <t>978-5566778899</t>
+  </si>
+  <si>
+    <t>Tittle</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>To Kill a Mockingbird</t>
+  </si>
+  <si>
+    <t>Harper Lee</t>
+  </si>
+  <si>
+    <t>USD $16.99</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>USD $9.99</t>
+  </si>
+  <si>
+    <t>The Great Gatsby: The Only Authorized Edition</t>
+  </si>
+  <si>
+    <t>Fitzgerald, F. Scott</t>
+  </si>
+  <si>
+    <t>USD $17.00</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>The Catcher in the Rye</t>
+  </si>
+  <si>
+    <t>J.D. Salinger</t>
+  </si>
+  <si>
+    <t>USD $5.92</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Sorcerer's Stone</t>
+  </si>
+  <si>
+    <t>Rowling, J.K.</t>
+  </si>
+  <si>
+    <t>USD $8.98</t>
+  </si>
+  <si>
+    <t>The Hobbit</t>
+  </si>
+  <si>
+    <t>J. R. R. Tolkien</t>
+  </si>
+  <si>
+    <t>USD $14.99</t>
+  </si>
+  <si>
+    <t>The Lord Of The Rings</t>
+  </si>
+  <si>
+    <t>Tolkien, J.R.R.</t>
+  </si>
+  <si>
+    <t>USD $20.00</t>
+  </si>
+  <si>
+    <t>Brave New World</t>
+  </si>
+  <si>
+    <t>Aldous Huxley</t>
+  </si>
+  <si>
+    <t>USD $10.98</t>
+  </si>
+  <si>
+    <t>Catch-22: 50th Anniversary Edition</t>
+  </si>
+  <si>
+    <t>Heller, Joseph</t>
+  </si>
+  <si>
+    <t>USD $18.00</t>
+  </si>
+  <si>
+    <t>The Grapes of Wrath</t>
+  </si>
+  <si>
+    <t>John Steinbeck</t>
+  </si>
+  <si>
+    <t>War and Peace (Oxford World's Classics)</t>
+  </si>
+  <si>
+    <t>Tolstoy, Leo
+                                                                    Maude, Louise and Aylmer
+                                                                    Mandelker, Amy</t>
+  </si>
+  <si>
+    <t>USD $13.95</t>
+  </si>
+  <si>
+    <t>Crime and Punishment: (Penguin Classics Deluxe Edition)</t>
+  </si>
+  <si>
+    <t>Dostoyevsky, Fyodor</t>
+  </si>
+  <si>
+    <t>ANNA KARENINA</t>
+  </si>
+  <si>
+    <t>Tolstoy, Leo</t>
+  </si>
+  <si>
+    <t>USD $10.35</t>
+  </si>
+  <si>
+    <t>The Brothers Karamazov</t>
+  </si>
+  <si>
+    <t>Dostoevsky, Fyodor</t>
+  </si>
+  <si>
+    <t>Alchemist, The</t>
+  </si>
+  <si>
+    <t>Coelho, Paulo</t>
+  </si>
+  <si>
+    <t>USD $5.99</t>
+  </si>
+  <si>
+    <t>The Divine Comedy: Volume 1: Inferno</t>
+  </si>
+  <si>
+    <t>Alighieri, Dante</t>
+  </si>
+  <si>
+    <t>USD $16.00</t>
+  </si>
+  <si>
+    <t>Column-1</t>
+  </si>
+  <si>
+    <t>One Man's Henry Moore</t>
+  </si>
+  <si>
+    <t>Finn, David
+Moore, Henry (Artist)</t>
+  </si>
+  <si>
+    <t>Pride and Prejudice</t>
+  </si>
+  <si>
+    <t>Austen, Jane</t>
+  </si>
+  <si>
+    <t>059035342X</t>
+  </si>
+  <si>
+    <t>054792822X</t>
   </si>
 </sst>
 </file>
@@ -146,8 +321,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,12 +343,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -486,13 +660,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA65EA80-D8A2-44B8-97ED-35175390AF26}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
@@ -509,117 +683,2587 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FDD352-6EEC-407E-9049-65F4F7840A4E}">
+  <dimension ref="A28:E414"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97" t="s">
+        <v>26</v>
+      </c>
+      <c r="D97" t="s">
+        <v>27</v>
+      </c>
+      <c r="E97" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" t="s">
+        <v>30</v>
+      </c>
+      <c r="D98" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99" t="s">
+        <v>27</v>
+      </c>
+      <c r="E99" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" t="s">
+        <v>30</v>
+      </c>
+      <c r="D104" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105" t="s">
+        <v>26</v>
+      </c>
+      <c r="D105" t="s">
+        <v>27</v>
+      </c>
+      <c r="E105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" t="s">
+        <v>30</v>
+      </c>
+      <c r="D106" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" t="s">
+        <v>27</v>
+      </c>
+      <c r="E107" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109" t="s">
+        <v>26</v>
+      </c>
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <v>1984</v>
+      </c>
+      <c r="C110" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111" t="s">
+        <v>26</v>
+      </c>
+      <c r="D111" t="s">
+        <v>27</v>
+      </c>
+      <c r="E111" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
+        <v>35</v>
+      </c>
+      <c r="C112" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113" t="s">
+        <v>26</v>
+      </c>
+      <c r="D113" t="s">
+        <v>27</v>
+      </c>
+      <c r="E113" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D114" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" t="s">
+        <v>27</v>
+      </c>
+      <c r="E117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>1984</v>
+      </c>
+      <c r="C118" t="s">
+        <v>33</v>
+      </c>
+      <c r="D118" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" t="s">
+        <v>26</v>
+      </c>
+      <c r="D119" t="s">
+        <v>27</v>
+      </c>
+      <c r="E119" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>3</v>
+      </c>
+      <c r="B120" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>26</v>
+      </c>
+      <c r="D121" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>22</v>
+      </c>
+      <c r="E122" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>26</v>
+      </c>
+      <c r="D123" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>4</v>
+      </c>
+      <c r="E124" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" t="s">
+        <v>27</v>
+      </c>
+      <c r="E125" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>39</v>
+      </c>
+      <c r="C126" t="s">
+        <v>40</v>
+      </c>
+      <c r="D126" t="s">
+        <v>41</v>
+      </c>
+      <c r="E126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B128" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" t="s">
+        <v>44</v>
+      </c>
+      <c r="E128" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" t="s">
+        <v>26</v>
+      </c>
+      <c r="D129" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B130" t="s">
+        <v>45</v>
+      </c>
+      <c r="C130" t="s">
+        <v>46</v>
+      </c>
+      <c r="D130" t="s">
+        <v>47</v>
+      </c>
+      <c r="E130" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" t="s">
+        <v>26</v>
+      </c>
+      <c r="D131" t="s">
+        <v>27</v>
+      </c>
+      <c r="E131" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E132" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" t="s">
+        <v>27</v>
+      </c>
+      <c r="E133" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134" t="s">
+        <v>49</v>
+      </c>
+      <c r="D134" t="s">
+        <v>50</v>
+      </c>
+      <c r="E134" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" t="s">
+        <v>26</v>
+      </c>
+      <c r="D135" t="s">
+        <v>27</v>
+      </c>
+      <c r="E135" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E136" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s">
+        <v>26</v>
+      </c>
+      <c r="D137" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B138" t="s">
+        <v>51</v>
+      </c>
+      <c r="C138" t="s">
+        <v>52</v>
+      </c>
+      <c r="D138" t="s">
+        <v>53</v>
+      </c>
+      <c r="E138" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" t="s">
+        <v>27</v>
+      </c>
+      <c r="E139" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B140" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" t="s">
+        <v>55</v>
+      </c>
+      <c r="D140" t="s">
+        <v>56</v>
+      </c>
+      <c r="E140" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" t="s">
+        <v>27</v>
+      </c>
+      <c r="E141" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E142" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" t="s">
+        <v>26</v>
+      </c>
+      <c r="D143" t="s">
+        <v>27</v>
+      </c>
+      <c r="E143" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B144" t="s">
+        <v>57</v>
+      </c>
+      <c r="C144" t="s">
+        <v>58</v>
+      </c>
+      <c r="D144" t="s">
+        <v>56</v>
+      </c>
+      <c r="E144" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" t="s">
+        <v>27</v>
+      </c>
+      <c r="E145" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B146" t="s">
+        <v>59</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D146" t="s">
+        <v>61</v>
+      </c>
+      <c r="E146" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B148" t="s">
+        <v>62</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>50</v>
+      </c>
+      <c r="E148" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" t="s">
+        <v>27</v>
+      </c>
+      <c r="E149" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B150" t="s">
+        <v>64</v>
+      </c>
+      <c r="C150" t="s">
+        <v>65</v>
+      </c>
+      <c r="D150" t="s">
+        <v>66</v>
+      </c>
+      <c r="E150" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" t="s">
+        <v>27</v>
+      </c>
+      <c r="E151" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B152" t="s">
+        <v>67</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>56</v>
+      </c>
+      <c r="E152" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" t="s">
+        <v>27</v>
+      </c>
+      <c r="E153" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="E154" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" t="s">
+        <v>27</v>
+      </c>
+      <c r="E155" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B156" t="s">
+        <v>69</v>
+      </c>
+      <c r="C156" t="s">
+        <v>70</v>
+      </c>
+      <c r="D156" t="s">
+        <v>71</v>
+      </c>
+      <c r="E156" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" t="s">
+        <v>27</v>
+      </c>
+      <c r="E157" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E158" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159" t="s">
+        <v>26</v>
+      </c>
+      <c r="D159" t="s">
+        <v>27</v>
+      </c>
+      <c r="E159" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>20</v>
+      </c>
+      <c r="B160" t="s">
+        <v>72</v>
+      </c>
+      <c r="C160" t="s">
+        <v>73</v>
+      </c>
+      <c r="D160" t="s">
+        <v>74</v>
+      </c>
+      <c r="E160" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161" t="s">
+        <v>26</v>
+      </c>
+      <c r="D161" t="s">
+        <v>27</v>
+      </c>
+      <c r="E161" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" t="s">
+        <v>29</v>
+      </c>
+      <c r="C162" t="s">
+        <v>30</v>
+      </c>
+      <c r="D162" t="s">
+        <v>31</v>
+      </c>
+      <c r="E162" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" t="s">
+        <v>26</v>
+      </c>
+      <c r="D163" t="s">
+        <v>27</v>
+      </c>
+      <c r="E163" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164">
+        <v>1984</v>
+      </c>
+      <c r="C164" t="s">
+        <v>33</v>
+      </c>
+      <c r="D164" t="s">
+        <v>34</v>
+      </c>
+      <c r="E164" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165" t="s">
+        <v>26</v>
+      </c>
+      <c r="D165" t="s">
+        <v>27</v>
+      </c>
+      <c r="E165" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>3</v>
+      </c>
+      <c r="B166" t="s">
+        <v>35</v>
+      </c>
+      <c r="C166" t="s">
+        <v>36</v>
+      </c>
+      <c r="D166" t="s">
+        <v>37</v>
+      </c>
+      <c r="E166" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167" t="s">
+        <v>26</v>
+      </c>
+      <c r="D167" t="s">
+        <v>27</v>
+      </c>
+      <c r="E167" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>1</v>
+      </c>
+      <c r="B168" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168" t="s">
+        <v>30</v>
+      </c>
+      <c r="D168" t="s">
+        <v>31</v>
+      </c>
+      <c r="E168" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
+        <v>25</v>
+      </c>
+      <c r="C169" t="s">
+        <v>26</v>
+      </c>
+      <c r="D169" t="s">
+        <v>27</v>
+      </c>
+      <c r="E169" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>1</v>
+      </c>
+      <c r="B170" t="s">
+        <v>29</v>
+      </c>
+      <c r="C170" t="s">
+        <v>30</v>
+      </c>
+      <c r="D170" t="s">
+        <v>31</v>
+      </c>
+      <c r="E170" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171" t="s">
+        <v>26</v>
+      </c>
+      <c r="D171" t="s">
+        <v>27</v>
+      </c>
+      <c r="E171" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>2</v>
+      </c>
+      <c r="B172">
+        <v>1984</v>
+      </c>
+      <c r="C172" t="s">
+        <v>33</v>
+      </c>
+      <c r="D172" t="s">
+        <v>34</v>
+      </c>
+      <c r="E172" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>25</v>
+      </c>
+      <c r="C173" t="s">
+        <v>26</v>
+      </c>
+      <c r="D173" t="s">
+        <v>27</v>
+      </c>
+      <c r="E173" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>3</v>
+      </c>
+      <c r="B174" t="s">
+        <v>35</v>
+      </c>
+      <c r="C174" t="s">
+        <v>36</v>
+      </c>
+      <c r="D174" t="s">
+        <v>37</v>
+      </c>
+      <c r="E174" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175" t="s">
+        <v>26</v>
+      </c>
+      <c r="D175" t="s">
+        <v>27</v>
+      </c>
+      <c r="E175" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>22</v>
+      </c>
+      <c r="E176" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177" t="s">
+        <v>26</v>
+      </c>
+      <c r="D177" t="s">
+        <v>27</v>
+      </c>
+      <c r="E177" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>4</v>
+      </c>
+      <c r="E178" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179" t="s">
+        <v>26</v>
+      </c>
+      <c r="D179" t="s">
+        <v>27</v>
+      </c>
+      <c r="E179" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>39</v>
+      </c>
+      <c r="C180" t="s">
+        <v>40</v>
+      </c>
+      <c r="D180" t="s">
+        <v>41</v>
+      </c>
+      <c r="E180" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181" t="s">
+        <v>26</v>
+      </c>
+      <c r="D181" t="s">
+        <v>27</v>
+      </c>
+      <c r="E181" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" t="s">
+        <v>42</v>
+      </c>
+      <c r="C182" t="s">
+        <v>43</v>
+      </c>
+      <c r="D182" t="s">
+        <v>44</v>
+      </c>
+      <c r="E182" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" t="s">
+        <v>26</v>
+      </c>
+      <c r="D183" t="s">
+        <v>27</v>
+      </c>
+      <c r="E183" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>45</v>
+      </c>
+      <c r="C184" t="s">
+        <v>46</v>
+      </c>
+      <c r="D184" t="s">
+        <v>47</v>
+      </c>
+      <c r="E184" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>61120081</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>9780061120084</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>451524934</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>9780451524935</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>743273567</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>9780743273565</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>987654322</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>9780987654328</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>1503290565</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>9781503290563</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>316769487</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>9780316769488</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>9780590353427</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>9780547928227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>61120081</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>9780061120084</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>451524934</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>9780451524935</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>743273567</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>9780743273565</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>987654322</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>9780987654328</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1503290565</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>9781503290563</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>316769487</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>9780316769488</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>9780590353427</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>9780547928227</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>61120081</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>9780061120084</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>451524934</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>9780451524935</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>743273567</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>9780743273565</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>987654322</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>9780987654328</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>1503290565</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>9781503290563</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>316769487</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>9780316769488</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>9780590353427</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>9780547928227</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>61120081</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>9780061120084</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>451524934</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>9780451524935</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>743273567</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>9780743273565</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>987654322</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>9780987654328</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1503290565</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>9781503290563</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>316769487</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>9780316769488</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>9780590353427</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>9780547928227</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>61120081</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>9780061120084</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>451524934</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>9780451524935</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>743273567</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>9780743273565</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>987654322</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>9780987654328</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>1503290565</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>9781503290563</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>316769487</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>9780316769488</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>9780590353427</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>9780547928227</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
